--- a/data/Spreadsheet_Data/Region.xlsx
+++ b/data/Spreadsheet_Data/Region.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6BB606-2EBC-0C46-A9C0-774C6CF3B57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152362B2-6BF1-5C4B-A9A6-E2716286729A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29180" windowHeight="21880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20020" yWindow="660" windowWidth="29180" windowHeight="21880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -368,7 +368,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -414,7 +414,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D2">
         <v>0.1</v>
@@ -443,7 +443,7 @@
         <v>0.2</v>
       </c>
       <c r="D3">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E3">
         <v>0.9</v>
@@ -466,7 +466,7 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D4">
         <v>0.5</v>
@@ -544,13 +544,13 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D7">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E7">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F7">
         <v>0.7</v>
